--- a/TruckingVSM/Content/template3.xlsx
+++ b/TruckingVSM/Content/template3.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$X$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SỐ TT</t>
   </si>
@@ -120,6 +120,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>LƯU ĐÊM</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,28 +487,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,6 +500,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +524,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2743"/>
+  <dimension ref="A1:Y2743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -880,110 +886,115 @@
     <col min="20" max="20" width="27.88671875" style="15" customWidth="1"/>
     <col min="21" max="21" width="19.5546875" style="15" customWidth="1"/>
     <col min="22" max="22" width="28.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="145.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="14"/>
+    <col min="23" max="23" width="28.88671875" style="14" customWidth="1"/>
+    <col min="24" max="24" width="145.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="17"/>
-    </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="Y2" s="30"/>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
@@ -996,22 +1007,23 @@
       <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="17"/>
-    </row>
-    <row r="4" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="29"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
+    </row>
+    <row r="4" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1034,9 +1046,10 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W4" s="6"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1059,7 +1072,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1082,7 +1095,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1105,7 +1118,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1128,7 +1141,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1151,7 +1164,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1174,7 +1187,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1197,7 +1210,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1220,7 +1233,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1243,7 +1256,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1266,7 +1279,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1289,7 +1302,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -63344,117 +63357,144 @@
     <row r="2720" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2720" s="13"/>
     </row>
-    <row r="2721" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2721" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2721" s="13"/>
     </row>
-    <row r="2722" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2722" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2722" s="13"/>
     </row>
-    <row r="2723" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2723" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2723" s="13"/>
     </row>
-    <row r="2724" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2724" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2724" s="13"/>
       <c r="V2724" s="14"/>
       <c r="W2724" s="14"/>
-    </row>
-    <row r="2725" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2724" s="14"/>
+    </row>
+    <row r="2725" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2725" s="13"/>
       <c r="V2725" s="14"/>
       <c r="W2725" s="14"/>
-    </row>
-    <row r="2726" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2725" s="14"/>
+    </row>
+    <row r="2726" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2726" s="13"/>
       <c r="V2726" s="14"/>
       <c r="W2726" s="14"/>
-    </row>
-    <row r="2727" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2726" s="14"/>
+    </row>
+    <row r="2727" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2727" s="13"/>
       <c r="V2727" s="14"/>
       <c r="W2727" s="14"/>
-    </row>
-    <row r="2728" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2727" s="14"/>
+    </row>
+    <row r="2728" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2728" s="13"/>
       <c r="V2728" s="14"/>
       <c r="W2728" s="14"/>
-    </row>
-    <row r="2729" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2728" s="14"/>
+    </row>
+    <row r="2729" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2729" s="13"/>
       <c r="V2729" s="14"/>
       <c r="W2729" s="14"/>
-    </row>
-    <row r="2730" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2729" s="14"/>
+    </row>
+    <row r="2730" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2730" s="13"/>
       <c r="V2730" s="14"/>
       <c r="W2730" s="14"/>
-    </row>
-    <row r="2731" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2730" s="14"/>
+    </row>
+    <row r="2731" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2731" s="13"/>
       <c r="V2731" s="14"/>
       <c r="W2731" s="14"/>
-    </row>
-    <row r="2732" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2731" s="14"/>
+    </row>
+    <row r="2732" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2732" s="13"/>
       <c r="V2732" s="14"/>
       <c r="W2732" s="14"/>
-    </row>
-    <row r="2733" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2732" s="14"/>
+    </row>
+    <row r="2733" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2733" s="13"/>
       <c r="V2733" s="14"/>
       <c r="W2733" s="14"/>
-    </row>
-    <row r="2734" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2733" s="14"/>
+    </row>
+    <row r="2734" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2734" s="13"/>
       <c r="V2734" s="14"/>
       <c r="W2734" s="14"/>
-    </row>
-    <row r="2735" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2734" s="14"/>
+    </row>
+    <row r="2735" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2735" s="13"/>
       <c r="V2735" s="14"/>
       <c r="W2735" s="14"/>
-    </row>
-    <row r="2736" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2735" s="14"/>
+    </row>
+    <row r="2736" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2736" s="13"/>
       <c r="V2736" s="14"/>
       <c r="W2736" s="14"/>
-    </row>
-    <row r="2737" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2736" s="14"/>
+    </row>
+    <row r="2737" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2737" s="13"/>
       <c r="V2737" s="14"/>
       <c r="W2737" s="14"/>
-    </row>
-    <row r="2738" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2737" s="14"/>
+    </row>
+    <row r="2738" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2738" s="13"/>
       <c r="V2738" s="14"/>
       <c r="W2738" s="14"/>
-    </row>
-    <row r="2739" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2738" s="14"/>
+    </row>
+    <row r="2739" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2739" s="13"/>
       <c r="V2739" s="14"/>
       <c r="W2739" s="14"/>
-    </row>
-    <row r="2740" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2739" s="14"/>
+    </row>
+    <row r="2740" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2740" s="13"/>
       <c r="V2740" s="14"/>
       <c r="W2740" s="14"/>
-    </row>
-    <row r="2741" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2740" s="14"/>
+    </row>
+    <row r="2741" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2741" s="13"/>
       <c r="V2741" s="14"/>
       <c r="W2741" s="14"/>
-    </row>
-    <row r="2742" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2741" s="14"/>
+    </row>
+    <row r="2742" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2742" s="13"/>
       <c r="V2742" s="14"/>
       <c r="W2742" s="14"/>
-    </row>
-    <row r="2743" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2742" s="14"/>
+    </row>
+    <row r="2743" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2743" s="13"/>
       <c r="V2743" s="14"/>
       <c r="W2743" s="14"/>
+      <c r="X2743" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:A3"/>
@@ -63471,12 +63511,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
   </mergeCells>
   <conditionalFormatting sqref="S4">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
